--- a/data/melanoma_sites.xlsx
+++ b/data/melanoma_sites.xlsx
@@ -1,13 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\nyou045\git\melanoma\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1889686D-6A39-441D-B3F8-7479EACAD3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5625" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mje1SgQSmbLA9zDe9qC7RGSnVNJzg=="/>
     </ext>
@@ -16,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Record number</t>
   </si>
@@ -202,41 +219,53 @@
   </si>
   <si>
     <t>Head or neck</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
+  </si>
+  <si>
+    <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>ra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -245,63 +274,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -491,24 +523,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="17" width="11.57"/>
-    <col customWidth="1" min="18" max="26" width="8.71"/>
+    <col min="1" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,9 +591,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -579,10 +613,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>18</v>
@@ -595,20 +629,20 @@
         <v>20</v>
       </c>
       <c r="M2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O2" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1">
       <c r="A3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -628,10 +662,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>23</v>
@@ -644,20 +678,20 @@
         <v>20</v>
       </c>
       <c r="M3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O3" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1">
       <c r="A4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -677,10 +711,10 @@
         <v>27</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>18</v>
@@ -693,20 +727,20 @@
         <v>20</v>
       </c>
       <c r="M4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="O4" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1">
       <c r="A5" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -726,10 +760,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>31</v>
@@ -744,20 +778,20 @@
         <v>34</v>
       </c>
       <c r="M5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="O5" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1">
       <c r="A6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>35</v>
@@ -777,10 +811,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>37</v>
@@ -793,20 +827,20 @@
         <v>39</v>
       </c>
       <c r="M6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="O6" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1">
       <c r="A7" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>40</v>
@@ -826,10 +860,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>42</v>
@@ -842,20 +876,20 @@
         <v>34</v>
       </c>
       <c r="M7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1">
       <c r="A8" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
@@ -875,10 +909,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>42</v>
@@ -893,20 +927,20 @@
         <v>34</v>
       </c>
       <c r="M8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O8" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
@@ -926,10 +960,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>31</v>
@@ -944,20 +978,20 @@
         <v>52</v>
       </c>
       <c r="M9" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="O9" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1">
       <c r="A10" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>53</v>
@@ -977,10 +1011,10 @@
         <v>27</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>42</v>
@@ -995,20 +1029,20 @@
         <v>34</v>
       </c>
       <c r="M10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1">
       <c r="A11" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>57</v>
@@ -1028,10 +1062,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>59</v>
@@ -1044,22 +1078,70 @@
         <v>61</v>
       </c>
       <c r="M11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="O11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <f>2021-2000</f>
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5">
+        <f>2021-2000</f>
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>24</v>
+      </c>
+      <c r="O12" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:17" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -2045,13 +2127,11 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/melanoma_sites.xlsx
+++ b/data/melanoma_sites.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\nyou045\git\melanoma\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\nyou045\git\melanoma\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1889686D-6A39-441D-B3F8-7479EACAD3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C24CE61-0A0F-4E38-9089-FBA9A3488070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$1000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Record number</t>
   </si>
@@ -221,13 +224,13 @@
     <t>Head or neck</t>
   </si>
   <si>
-    <t>27/05/2021</t>
-  </si>
-  <si>
-    <t>1/1/2000</t>
-  </si>
-  <si>
-    <t>ra</t>
+    <t>rc5</t>
+  </si>
+  <si>
+    <t>la,ra,li</t>
+  </si>
+  <si>
+    <t>la,ri</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -315,6 +318,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -593,21 +598,21 @@
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5">
-        <f>1995-1937</f>
-        <v>58</v>
+        <f>1998-1953</f>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E2" s="5">
-        <f>1995-1937</f>
-        <v>58</v>
+        <f>1998-1953</f>
+        <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>17</v>
@@ -622,139 +627,141 @@
         <v>18</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="K2" s="10"/>
       <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="M2" s="12">
+        <v>5</v>
       </c>
       <c r="N2" s="3">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3">
         <v>10</v>
-      </c>
-      <c r="O2" s="3">
-        <v>20</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="12.75" customHeight="1">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5">
-        <f>-1961+1993</f>
-        <v>32</v>
+        <f>1999-1927</f>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5">
-        <f>-1961+1993</f>
-        <v>32</v>
+        <f>1999-1927</f>
+        <v>72</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="L3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="M3" s="12">
+        <v>5</v>
       </c>
       <c r="N3" s="3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O3" s="3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5">
-        <f>1993-1918</f>
-        <v>75</v>
+        <f>-1960+1994</f>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5">
-        <f>1993-1918</f>
-        <v>75</v>
+        <f>-1960+1994</f>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5</v>
       </c>
       <c r="N4" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O4" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
-        <f>1998-1906</f>
-        <v>92</v>
+        <f>1995-1937</f>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
-        <f>1998-1906</f>
-        <v>92</v>
+        <f>1995-1937</f>
+        <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>17</v>
@@ -766,98 +773,98 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O5" s="3">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5">
-        <f>-1960+1994</f>
-        <v>34</v>
+        <f>1994-1948</f>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5">
-        <f>-1960+1994</f>
-        <v>34</v>
+        <f>1994-1948</f>
+        <v>46</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O6" s="3">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1">
       <c r="A7" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5">
-        <f>1998-1953</f>
-        <v>45</v>
+        <f>1993-1918</f>
+        <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5">
-        <f>1998-1953</f>
-        <v>45</v>
+        <f>1993-1918</f>
+        <v>75</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -866,44 +873,44 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="K7" s="8"/>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O7" s="3">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1">
       <c r="A8" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5">
-        <f>1993-1917</f>
-        <v>76</v>
+        <f>-1961+1993</f>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5">
-        <f>1993-1917</f>
-        <v>76</v>
+        <f>-1961+1993</f>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
@@ -912,49 +919,47 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3">
         <v>1</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>16</v>
       </c>
       <c r="O8" s="3">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
-        <f>1994-1948</f>
-        <v>46</v>
+        <f>1993-1917</f>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5">
-        <f>1994-1948</f>
-        <v>46</v>
+        <f>1993-1917</f>
+        <v>76</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>17</v>
@@ -966,97 +971,93 @@
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O9" s="3">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1">
       <c r="A10" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5">
-        <f>1999-1927</f>
-        <v>72</v>
+        <f>-1914+1998</f>
+        <v>84</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E10" s="5">
-        <f>1999-1927</f>
-        <v>72</v>
+        <f>-1914+1998</f>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
       <c r="N10" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O10" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1">
       <c r="A11" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="5">
-        <f>-1914+1998</f>
-        <v>84</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>36526</v>
       </c>
       <c r="E11" s="5">
-        <f>-1914+1998</f>
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>17</v>
@@ -1068,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>60</v>
@@ -1091,24 +1092,24 @@
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1">
       <c r="A12" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5">
-        <f>2021-2000</f>
-        <v>21</v>
+        <f>1998-1906</f>
+        <v>92</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5">
-        <f>2021-2000</f>
-        <v>21</v>
+        <f>1998-1906</f>
+        <v>92</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1117,30 +1118,170 @@
         <v>1</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M12" s="3">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>22</v>
+      </c>
+      <c r="O12" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <f>1998-1953</f>
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5">
+        <f>1998-1953</f>
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="3">
         <v>24</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5">
+        <f>1999-1927</f>
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5">
+        <f>1999-1927</f>
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
+        <f>-1960+1994</f>
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5">
+        <f>-1960+1994</f>
+        <v>34</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3">
+        <v>47</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
@@ -2127,6 +2268,11 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="N1:N1000" xr:uid="{1D902787-D281-4D4F-B42B-CCA3964FD92E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O1000">
+      <sortCondition ref="N1:N1000"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
